--- a/data/高端人才 - 地方引才计划.xlsx
+++ b/data/高端人才 - 地方引才计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18570" windowHeight="8250"/>
+    <workbookView windowWidth="20580" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,8 +42,7 @@
     <t>天津千人计划</t>
   </si>
   <si>
-    <t>为充分发挥海外高层次人才在天津经济社会发展中的重要作用，天津市下发《天津市实施海外高层次人才引进计划的意见》。从2009年起，天津市将用5至10年的时间引进1000名海外高层次人才，并提供相应资金支持政策：对海外高层次创新人才资助每人人民币100万元、引进创业人才资助每人人民币300万元。
-实施海外高层次人才引进计划的目标任务是：从2009年开始用5至10年时间，在全市重点创新项目、重点学科和重点实验室、企业和商业金融机构、以高新技术产业开发和成果转化为主的各类园区等领域，引进并重点支持1000名左右能够突破关键技术、发展高新技术产业、带动新兴学科和新兴产业的国际一流科学家和科技创新创业领军人才(简称“千人计划”)，以及金融、文化、教育、社会工作、社会科学等领域业绩突出、知名度高的人才。</t>
+    <t>为充分发挥海外高层次人才在天津经济社会发展中的重要作用，天津市下发《天津市实施海外高层次人才引进计划的意见》。从2009年起，天津市将用5至10年的时间引进1000名海外高层次人才，并提供相应资金支持政策：对海外高层次创新人才资助每人人民币100万元、引进创业人才资助每人人民币300万元。实施海外高层次人才引进计划的目标任务是：从2009年开始用5至10年时间，在全市重点创新项目、重点学科和重点实验室、企业和商业金融机构、以高新技术产业开发和成果转化为主的各类园区等领域，引进并重点支持1000名左右能够突破关键技术、发展高新技术产业、带动新兴学科和新兴产业的国际一流科学家和科技创新创业领军人才(简称“千人计划”)，以及金融、文化、教育、社会工作、社会科学等领域业绩突出、知名度高的人才。</t>
   </si>
   <si>
     <t>上海</t>
@@ -70,8 +69,7 @@
     <t>浙江海外高层次人才引进计划</t>
   </si>
   <si>
-    <t>2010年起，浙江启动海外高层次人才引进计划。与以往不同的是，这次引进海外人才的要求特别高：是有战略眼光、领军型的人才，能独当一面。从今年开始，浙江将用5年时间，引进1万名优秀海外创业创新人才和10万人次外籍专家，实施2000个重点国外引智项目。未来5年-10年内，浙江将依托重大科技专项、公共创新平台、重大建设工程、重中之重学科和重点学科、重点实验室、高新技术产业开发区和留学人员创业园区，引进并重点支持300名左右的战略科学家、科技领军人才和创业人才等海外高层次人才。
-为抓紧实施海外高层次人才引进计划，2010年3月，浙江将以省政府名义赴美国、加拿大举办3场海外高层次人才大型招聘活动：在旧金山硅谷将以吸引高科技人才为主，在纽约以吸引金融等服务业人才为主，在多伦多则面向海外各类人才。据教育部统计，目前我国约有20多万留学人员学成后留在海外工作，就职于国际知名企业、高水平大学和研究机构，取得副教授或相当职务以上的高层次人才约有1.5万人，大多在35岁-50岁之间，正处于创业创新的黄金期。浙江现在推出海外高层次人才引进计划，不仅是因为人才成本比以往低，更重要的是，为浙江的长远发展做准备。</t>
+    <t>2010年起，浙江启动海外高层次人才引进计划。与以往不同的是，这次引进海外人才的要求特别高：是有战略眼光、领军型的人才，能独当一面。从今年开始，浙江将用5年时间，引进1万名优秀海外创业创新人才和10万人次外籍专家，实施2000个重点国外引智项目。未来5年-10年内，浙江将依托重大科技专项、公共创新平台、重大建设工程、重中之重学科和重点学科、重点实验室、高新技术产业开发区和留学人员创业园区，引进并重点支持300名左右的战略科学家、科技领军人才和创业人才等海外高层次人才。为抓紧实施海外高层次人才引进计划，2010年3月，浙江将以省政府名义赴美国、加拿大举办3场海外高层次人才大型招聘活动：在旧金山硅谷将以吸引高科技人才为主，在纽约以吸引金融等服务业人才为主，在多伦多则面向海外各类人才。据教育部统计，目前我国约有20多万留学人员学成后留在海外工作，就职于国际知名企业、高水平大学和研究机构，取得副教授或相当职务以上的高层次人才约有1.5万人，大多在35岁-50岁之间，正处于创业创新的黄金期。浙江现在推出海外高层次人才引进计划，不仅是因为人才成本比以往低，更重要的是，为浙江的长远发展做准备。</t>
   </si>
   <si>
     <t>广东</t>
@@ -107,8 +105,7 @@
     <t>沈阳“凤来雁归”人才计划</t>
   </si>
   <si>
-    <t>“凤来”喻指引进外来高端人才，“雁归”则指沈阳籍各类高层次人才的回流。为加强引才力度，沈阳市专门成立了引进高端人才工作领导小组，细化各项人才扶持政策，每年拿出3000万元作为人才开发专项资金，使大批高端人才涌入沈阳。
-“凤来雁归”引才工程一方面以优惠政策引才，在资金方面给人才提供各项便利。沈阳市财政每年安排3000万元人才资源开发专项资金，对本土培养及人事关系调入沈阳或签订5年以上聘用合同的两院院士，给予500万—1000万元项目资金支持;同时，运用安家补助费、科研、生活补贴等手段，积极留才。另一方面，积极搭建揽才平台，借助与网站合作、举办境外人才招聘会、建立海外人才工作站、组团参加“海创周”等多种渠道，延揽创新人才，拓展引智空间，人才引进工作模式不断得以创新。</t>
+    <t>“凤来”喻指引进外来高端人才，“雁归”则指沈阳籍各类高层次人才的回流。为加强引才力度，沈阳市专门成立了引进高端人才工作领导小组，细化各项人才扶持政策，每年拿出3000万元作为人才开发专项资金，使大批高端人才涌入沈阳。“凤来雁归”引才工程一方面以优惠政策引才，在资金方面给人才提供各项便利。沈阳市财政每年安排3000万元人才资源开发专项资金，对本土培养及人事关系调入沈阳或签订5年以上聘用合同的两院院士，给予500万—1000万元项目资金支持;同时，运用安家补助费、科研、生活补贴等手段，积极留才。另一方面，积极搭建揽才平台，借助与网站合作、举办境外人才招聘会、建立海外人才工作站、组团参加“海创周”等多种渠道，延揽创新人才，拓展引智空间，人才引进工作模式不断得以创新。</t>
   </si>
   <si>
     <t>吉林</t>
@@ -136,8 +133,7 @@
   </si>
   <si>
     <t>安徽省“百人计划”是面向海外引进急需紧缺的能够突破关键技术、发展高新产业、带动新兴学科的创新创业领军人才。引进人才主要为2008年1月以后到安徽工作，或有意来安徽省并与用人单位签订引进意向协议的海外创新、创业人才。
-申报“百人计划”的创新人才，一般应在海外取得博士学位，年龄不超过55岁，在国外著名高校、科研院所担任高级专业技术职务的专家学者，或在国际知名企业和金融机构担任高级职务的专业技术人才和经营管理人才，引进后每年在安徽省工作时间不少于6个月等。
-申报“百人计划”的创业人才，一般应在海外取得学位，不超过55岁;拥有的技术成果属国际领先或填补国内空白，具有产业化开发潜力;有海外创业经验或曾任国际知名企业中高层管理职位;为所在企业的主要创办人且为第一大股东;企业成立1年以上、5年以下，其拥有核心技术的产品已处于中试或产业化阶段等。</t>
+申报“百人计划”的创新人才，一般应在海外取得博士学位，年龄不超过55岁，在国外著名高校、科研院所担任高级专业技术职务的专家学者，或在国际知名企业和金融机构担任高级职务的专业技术人才和经营管理人才，引进后每年在安徽省工作时间不少于6个月等。申报“百人计划”的创业人才，一般应在海外取得学位，不超过55岁;拥有的技术成果属国际领先或填补国内空白，具有产业化开发潜力;有海外创业经验或曾任国际知名企业中高层管理职位;为所在企业的主要创办人且为第一大股东;企业成立1年以上、5年以下，其拥有核心技术的产品已处于中试或产业化阶段等。</t>
   </si>
   <si>
     <t>江西</t>
@@ -155,9 +151,7 @@
     <t>河南百人计划</t>
   </si>
   <si>
-    <t>从2009开始，河南省将用5年～10年时间实施“海外高层次人才引进百人计划”，即在国家和省重点创新项目、重点学科和重点实验室、重点企业和地方商业金融机构、以高新技术产业开发区为主的各类园区引进并有重点地支持120名左右能突破关键技术、发展高新产业、带动新兴学科的领军人才来豫创新创业。
-引进的人才一般应在海外取得博士学位，不超过55岁，引进后每年在省内工作不少于6个月。为了给引进人才搭建自由广阔的创业平台，凡河南省引进的海外高层次创新创业人才和经营管理人才，可以直接聘任为高等学校、科研院所、重点企业、地方商业金融机构中层以上领导职务或高级专业技术职务。
-入选河南省“百人计划”的人选，省政府给予每人120万元的一次性奖金资助;省“百人计划”中入选国家“千人计划”的，同时享受国家100万元一次性补助。用人单位参照引进人才回国(来华)前的收入水平，协商确定引进人才的合理薪酬。5年内在境内取得的住房补贴、伙食补贴、搬迁费、探亲费、子女教育费等，按照国家税收法律法规的有关规定，予以税前扣除。引进人才享受医疗照顾人员待遇(入选国家“千人计划”的按国家有关规定办理)，由省级卫生行政部门为其发放医疗证。</t>
+    <t>从2009开始，河南省将用5年～10年时间实施“海外高层次人才引进百人计划”，即在国家和省重点创新项目、重点学科和重点实验室、重点企业和地方商业金融机构、以高新技术产业开发区为主的各类园区引进并有重点地支持120名左右能突破关键技术、发展高新产业、带动新兴学科的领军人才来豫创新创业。引进的人才一般应在海外取得博士学位，不超过55岁，引进后每年在省内工作不少于6个月。为了给引进人才搭建自由广阔的创业平台，凡河南省引进的海外高层次创新创业人才和经营管理人才，可以直接聘任为高等学校、科研院所、重点企业、地方商业金融机构中层以上领导职务或高级专业技术职务。入选河南省“百人计划”的人选，省政府给予每人120万元的一次性奖金资助;省“百人计划”中入选国家“千人计划”的，同时享受国家100万元一次性补助。用人单位参照引进人才回国(来华)前的收入水平，协商确定引进人才的合理薪酬。5年内在境内取得的住房补贴、伙食补贴、搬迁费、探亲费、子女教育费等，按照国家税收法律法规的有关规定，予以税前扣除。引进人才享受医疗照顾人员待遇(入选国家“千人计划”的按国家有关规定办理)，由省级卫生行政部门为其发放医疗证。</t>
   </si>
   <si>
     <t>湖南</t>
@@ -166,8 +160,7 @@
     <t>湖南百人计划</t>
   </si>
   <si>
-    <t>湖南“百人计划”是按照中央统一部署，从2009年起启动实施了引进海外高层次人才的一项战略举措，计划用5年左右时间，引进100名左右海外高层次人才， 经过用人单位申报，组织专家评审，报请省委人才工作领导小组批准，目前已有28人入选“百人计划”，同时成为湖南省特聘专家。
-湖南是一个人才大省，但是人才结构不合理，特别缺少在新兴学科、产业方面有全球影响力的人才。实施“百人计划”，大力引进海外高层次人才，是在短时间内拥有一批高端人才的现实、快捷的有效途径，对提升湖南自主创新能力、促进高新技术产业发展、实施“科教兴湘”和“人才强省”战略具有十分重要的意义。湖南省科技厅将参考科技部“千人计划”支持政策的基础上，出台相关“百人计划”人选的支持措施，做好海外高层次人才引进工作。</t>
+    <t>湖南“百人计划”是按照中央统一部署，从2009年起启动实施了引进海外高层次人才的一项战略举措，计划用5年左右时间，引进100名左右海外高层次人才， 经过用人单位申报，组织专家评审，报请省委人才工作领导小组批准，目前已有28人入选“百人计划”，同时成为湖南省特聘专家。湖南是一个人才大省，但是人才结构不合理，特别缺少在新兴学科、产业方面有全球影响力的人才。实施“百人计划”，大力引进海外高层次人才，是在短时间内拥有一批高端人才的现实、快捷的有效途径，对提升湖南自主创新能力、促进高新技术产业发展、实施“科教兴湘”和“人才强省”战略具有十分重要的意义。湖南省科技厅将参考科技部“千人计划”支持政策的基础上，出台相关“百人计划”人选的支持措施，做好海外高层次人才引进工作。</t>
   </si>
   <si>
     <t>湖北</t>
@@ -188,9 +181,7 @@
     <t>四川百人计划</t>
   </si>
   <si>
-    <t>为大力引进海外高层次人才，强化“两个加快”的人才支撑，今年年初，我省全面启动引进海外高层次人才“百人计划”，计划用5—10年时间，在重点创新项目、重点学科和重点实验室、省属企业和在川金融机构、以高新技术产业开发区为主的各类园区等4大领域，分批引进并重点支持200名左右的海外高层次人才来川创新创业。
-引才对象主要是四个类别：围绕全省发展战略目标，在“7+3”产业、交通、商贸物流、金融等行业，引进一批善于全球营销、国际管理、资本运营的高级经营管理人才，一批能够跟踪甚至超越国际前沿技术、引领产业升级、领衔重大项目的科技创新领军人才，一批承接国际服务外包方面的高层次人才，以及一批金融领军人才和高级金融专业技术人才。
-针对各地、各单位用人需求的差异性，全省分省、省直部门、地方、用人单位四个层面分层次广揽海外英才。省层面重点引进能够突破关键技术、发展高新产业、带动新兴学科的科技领军人才和高层次经营管理人才。除此之外，其他三个层面还将结合实际分别制定适合各自人才需求的引才标准与引进方式。各地各部门各单位引进人才符合中央“千人计划”及省“百人计划”条件的，可申报政府资助。</t>
+    <t>为大力引进海外高层次人才，强化“两个加快”的人才支撑，今年年初，我省全面启动引进海外高层次人才“百人计划”，计划用5—10年时间，在重点创新项目、重点学科和重点实验室、省属企业和在川金融机构、以高新技术产业开发区为主的各类园区等4大领域，分批引进并重点支持200名左右的海外高层次人才来川创新创业。引才对象主要是四个类别：围绕全省发展战略目标，在“7+3”产业、交通、商贸物流、金融等行业，引进一批善于全球营销、国际管理、资本运营的高级经营管理人才，一批能够跟踪甚至超越国际前沿技术、引领产业升级、领衔重大项目的科技创新领军人才，一批承接国际服务外包方面的高层次人才，以及一批金融领军人才和高级金融专业技术人才。针对各地、各单位用人需求的差异性，全省分省、省直部门、地方、用人单位四个层面分层次广揽海外英才。省层面重点引进能够突破关键技术、发展高新产业、带动新兴学科的科技领军人才和高层次经营管理人才。除此之外，其他三个层面还将结合实际分别制定适合各自人才需求的引才标准与引进方式。各地各部门各单位引进人才符合中央“千人计划”及省“百人计划”条件的，可申报政府资助。</t>
   </si>
   <si>
     <t>贵州</t>
@@ -208,8 +199,7 @@
     <t>云南百名海外高层次人才引进计划</t>
   </si>
   <si>
-    <t>云南省大力引进海外高层次科技人才，重点支持海外高层次人才来滇创新创业。从2009年起，云南省将用5年至10年时间，引进100名左右能够突破关键技术、发展高新产业、带动新兴学科的海外高层次人才。为此，云南将继续完善相关政策和配套措施，为引进海外高层次人才创造良好的政策环境;鼓励高等院校、科研机构、企业和以高新技术开发区为主的各类园区等加大吸引海外高层次人才的工作力度。
-目前云南省在科技、经济、金融等领域，以及烟草、矿产、能源、生物、旅游等支柱产业及花卉、民族民间文化特色优势产业，急需高层次人才。2008年起，云南省开始实施“高端科技人才引进计划”，着力解决科技领军人才不足的难题。目前，已引进9名高端科技人才，均为相关研究领域国内外知名专家。云南省各级政府和有关部门将进一步完善激励和支持科技人员服务基层和企业的政策环境，要在收入分配、物质激励和表彰奖励等方面完善政策和制度，探索构建“产学研用”有效合作、互利共赢的模式，完善科技成果转化机制，建设好科技成果交易平台，鼓励、引导更多的优秀科技人才和科技资源自觉地向企业汇集。</t>
+    <t>云南省大力引进海外高层次科技人才，重点支持海外高层次人才来滇创新创业。从2009年起，云南省将用5年至10年时间，引进100名左右能够突破关键技术、发展高新产业、带动新兴学科的海外高层次人才。为此，云南将继续完善相关政策和配套措施，为引进海外高层次人才创造良好的政策环境;鼓励高等院校、科研机构、企业和以高新技术开发区为主的各类园区等加大吸引海外高层次人才的工作力度。目前云南省在科技、经济、金融等领域，以及烟草、矿产、能源、生物、旅游等支柱产业及花卉、民族民间文化特色优势产业，急需高层次人才。2008年起，云南省开始实施“高端科技人才引进计划”，着力解决科技领军人才不足的难题。目前，已引进9名高端科技人才，均为相关研究领域国内外知名专家。云南省各级政府和有关部门将进一步完善激励和支持科技人员服务基层和企业的政策环境，要在收入分配、物质激励和表彰奖励等方面完善政策和制度，探索构建“产学研用”有效合作、互利共赢的模式，完善科技成果转化机制，建设好科技成果交易平台，鼓励、引导更多的优秀科技人才和科技资源自觉地向企业汇集。</t>
   </si>
   <si>
     <t>陕西</t>
@@ -218,9 +208,7 @@
     <t>陕西百人计划</t>
   </si>
   <si>
-    <t>为鼓励和吸引高层次人才到陕西创业、工作、服务，陕西省将组织实施引进高层次人才的“百人计划”，计划从2009年开始用5年到10年时间引进并重点支持200名高层次人才，并由省财政给予每人50万元人民币的一次性资助。
-陕西省规定引进的高层次人才，需具有良好职业道德和真才实学，一般应具有博士学位，年龄一般不超过55岁，国(境)外引进人才每年在陕西省工作原则上不少于6个月，国内引进人才不少于9个月。工作领域主要集中在高等院校、科研机构(含国家和省重点创新项目、重点实验室)、省属国有企业、省属金融机构、高新技术产业开发区、经济技术开发区为主的各类园区、科技成果产业化、陕北能源化工基地、航空航天高技术产业基地和重大建设项目、非公有制经济组织等。
-陕西将设立陕西省高层次人才引进专项资金，省财政每年安排不少于5000万元专款，用于高层次人才来陕创业、服务的资助和有关补贴。对于进入陕西省“百人计划”的引进人才，由省财政给予每人50万元人民币的一次性资助(视同政府奖金)，免征个人所得税。</t>
+    <t>为鼓励和吸引高层次人才到陕西创业、工作、服务，陕西省将组织实施引进高层次人才的“百人计划”，计划从2009年开始用5年到10年时间引进并重点支持200名高层次人才，并由省财政给予每人50万元人民币的一次性资助。陕西省规定引进的高层次人才，需具有良好职业道德和真才实学，一般应具有博士学位，年龄一般不超过55岁，国(境)外引进人才每年在陕西省工作原则上不少于6个月，国内引进人才不少于9个月。工作领域主要集中在高等院校、科研机构(含国家和省重点创新项目、重点实验室)、省属国有企业、省属金融机构、高新技术产业开发区、经济技术开发区为主的各类园区、科技成果产业化、陕北能源化工基地、航空航天高技术产业基地和重大建设项目、非公有制经济组织等。陕西将设立陕西省高层次人才引进专项资金，省财政每年安排不少于5000万元专款，用于高层次人才来陕创业、服务的资助和有关补贴。对于进入陕西省“百人计划”的引进人才，由省财政给予每人50万元人民币的一次性资助(视同政府奖金)，免征个人所得税。</t>
   </si>
   <si>
     <t>青海</t>
@@ -229,8 +217,7 @@
     <t>青海省引进海外高层次人才工作</t>
   </si>
   <si>
-    <t>青海省引进海外高层次人才工作，主要围绕全省经济社会发展战略目标，计划从2009年开始，在全省重点创新项目、重点学科和重点实验室、省属国有企业、省属金融机构和中央驻青金融机构、以高新技术产业开发区等为主的各类园区，用5—10年时间，引进水电开发、石油天然气、盐湖化工、有色金属、地质勘探、冶金建材、装备制造、高原医药、高原生物、现代农牧业、新能源和生态保护建设等领域的100名左右海外高层次人才来青海创新创业，力争使其中10名入选国家“千人计划”。
-为给引进的海外高层次人才提供良好的工作生活条件，《青海省引进海外高层次人才暂行办法》规定，对引进的符合条件的海外高层次人才，在3-—5年内给予20万元的省人才专项经费资助。同时，给引进的海外高层次人才搭建事业平台、提供补助、医疗、住房、家属子女就业和服务保障等方面作出了相应的政策规定。</t>
+    <t>青海省引进海外高层次人才工作，主要围绕全省经济社会发展战略目标，计划从2009年开始，在全省重点创新项目、重点学科和重点实验室、省属国有企业、省属金融机构和中央驻青金融机构、以高新技术产业开发区等为主的各类园区，用5—10年时间，引进水电开发、石油天然气、盐湖化工、有色金属、地质勘探、冶金建材、装备制造、高原医药、高原生物、现代农牧业、新能源和生态保护建设等领域的100名左右海外高层次人才来青海创新创业，力争使其中10名入选国家“千人计划”。为给引进的海外高层次人才提供良好的工作生活条件，《青海省引进海外高层次人才暂行办法》规定，对引进的符合条件的海外高层次人才，在3-—5年内给予20万元的省人才专项经费资助。同时，给引进的海外高层次人才搭建事业平台、提供补助、医疗、住房、家属子女就业和服务保障等方面作出了相应的政策规定。</t>
   </si>
   <si>
     <t>宁夏</t>
@@ -239,9 +226,7 @@
     <t>宁夏百人计划</t>
   </si>
   <si>
-    <t>“百人计划”围绕宁夏“六大基地、六个示范区和一个目的地”的战略定位，从2009年开始，用5年至10年，在自治区重点创新项目、特色产业、优势学科和重点实验室、工程技术研究中心、大中型企业和国有商业金融机构、以高新技术产业开发区为主的各类创新创业园区等，把招商引资与招才引智结合起来，引进并有重点地支持200名左右海外高层次科技人才来宁创新创业(简称“百人计划”)。
-目前，此项工作进展顺利，各单位已申报完毕，进入专家评审阶段。6月8日，自治区党委组织部和人社厅组织专家对各单位申报符合“百人计划”高层次人才人选进行了专家评审。
-为了实施好“百人计划”，自治区政府每年专门安排1000万元，作为引进海内外高层次人才创新创业专项扶持资金。列入“百人计划”的引进人才，自治区财政给予引进单位30-50万元的补助，用于改善引进人才的工作和生活条件。同时，对带高新技术成果、项目来宁夏实施转化或从事高新技术项目研究开发的，符合宁夏产业发展方向的，自治区财政给予一定数额的创新创业扶持资金。对引进的高层次人才，用人单位提供不小于120平方米的住房，给予8-10万元的安家补助费;同级政府再给予一定数额的科研启动补助。对进入宁夏博士后科研工作站的博士后人员，在站两年期间自治区财政给予每人一次性10万元的科研项目资助经费;期满出站的博士后人员，留在宁夏工作并签订五年以上合同的，可连续五年每年获得自治区财政5万元的科研项目资助经费。对引进高层次人才居留和出入境、落户、医疗、保险、住房、职称评审、子女就业、配偶安置等方面给予特殊优惠。对为宁夏科技进步、经济社会发展做出突出贡献的引进人才，可担任领导职务、承担重大科技项目、申请科技资金、参与有关标准制定;同时优先推荐申报享受国务院特殊津贴和自治区政府特殊津贴，优先推荐评选国家有突出贡献的中青年专家、国家“百千万人才工程”和自治区“新世纪313人才工程”人选等。自治区政府设立引进人才创新创业奖，每两年评选一次，对做出突出贡献者给予重奖。</t>
+    <t>“百人计划”围绕宁夏“六大基地、六个示范区和一个目的地”的战略定位，从2009年开始，用5年至10年，在自治区重点创新项目、特色产业、优势学科和重点实验室、工程技术研究中心、大中型企业和国有商业金融机构、以高新技术产业开发区为主的各类创新创业园区等，把招商引资与招才引智结合起来，引进并有重点地支持200名左右海外高层次科技人才来宁创新创业(简称“百人计划”)。目前，此项工作进展顺利，各单位已申报完毕，进入专家评审阶段。6月8日，自治区党委组织部和人社厅组织专家对各单位申报符合“百人计划”高层次人才人选进行了专家评审。为了实施好“百人计划”，自治区政府每年专门安排1000万元，作为引进海内外高层次人才创新创业专项扶持资金。列入“百人计划”的引进人才，自治区财政给予引进单位30-50万元的补助，用于改善引进人才的工作和生活条件。同时，对带高新技术成果、项目来宁夏实施转化或从事高新技术项目研究开发的，符合宁夏产业发展方向的，自治区财政给予一定数额的创新创业扶持资金。对引进的高层次人才，用人单位提供不小于120平方米的住房，给予8-10万元的安家补助费;同级政府再给予一定数额的科研启动补助。对进入宁夏博士后科研工作站的博士后人员，在站两年期间自治区财政给予每人一次性10万元的科研项目资助经费;期满出站的博士后人员，留在宁夏工作并签订五年以上合同的，可连续五年每年获得自治区财政5万元的科研项目资助经费。对引进高层次人才居留和出入境、落户、医疗、保险、住房、职称评审、子女就业、配偶安置等方面给予特殊优惠。对为宁夏科技进步、经济社会发展做出突出贡献的引进人才，可担任领导职务、承担重大科技项目、申请科技资金、参与有关标准制定;同时优先推荐申报享受国务院特殊津贴和自治区政府特殊津贴，优先推荐评选国家有突出贡献的中青年专家、国家“百千万人才工程”和自治区“新世纪313人才工程”人选等。自治区政府设立引进人才创新创业奖，每两年评选一次，对做出突出贡献者给予重奖。</t>
   </si>
   <si>
     <t>内蒙古</t>
@@ -250,9 +235,7 @@
     <t>内蒙古草原英才工程</t>
   </si>
   <si>
-    <t>从2010年起内蒙古自治区开始实施“草原英才”工程，计划用3至5年时间，有计划、有重点、有针对性地引进培养一批事业发展急需的高层次创新人才。
-据悉，“草原英才”工程由自治区党委组织部组织实施，将紧紧围绕自治区科学发展大局，特别是优势特色产业发展的总体布局和趋势，根据自治区各重点产业、重点行业、重大项目产业升级、科技创新、学科建设、技术开发、自主创业的迫切需要，有针对性地引进一批海内外高层次领军人才和创业团队。同时，通过“以引进带培养，以培养促引进”的方式，加大高层次人才培养力度，全面提升自治区高层次人才队伍的自主创新能力。
-据内蒙古自治区教育厅厅长李东升介绍，“草原英才”工程包括10个子项目工程，其中教育部门承担“高校重点学科人才引进和培养工程”的实施工作。</t>
+    <t>从2010年起内蒙古自治区开始实施“草原英才”工程，计划用3至5年时间，有计划、有重点、有针对性地引进培养一批事业发展急需的高层次创新人才。据悉，“草原英才”工程由自治区党委组织部组织实施，将紧紧围绕自治区科学发展大局，特别是优势特色产业发展的总体布局和趋势，根据自治区各重点产业、重点行业、重大项目产业升级、科技创新、学科建设、技术开发、自主创业的迫切需要，有针对性地引进一批海内外高层次领军人才和创业团队。同时，通过“以引进带培养，以培养促引进”的方式，加大高层次人才培养力度，全面提升自治区高层次人才队伍的自主创新能力。据内蒙古自治区教育厅厅长李东升介绍，“草原英才”工程包括10个子项目工程，其中教育部门承担“高校重点学科人才引进和培养工程”的实施工作。</t>
   </si>
   <si>
     <t>甘肃</t>
@@ -261,8 +244,7 @@
     <t>甘肃省“高层次人才科技创新创业扶持行动”</t>
   </si>
   <si>
-    <t>甘肃省“高层次人才科技创新创业扶持行动”，重点扶持海内外高层次科技人才(团队)来我省创新创业，与我省企业共同研发和转化具有自主知识产权、能够形成产业规模、具有广阔市场前景和可观预期效益的重大科技创新创业项目，孵化和培育一批高成长性的高新技术企业。
-重点引进新材料、新能源、先进装备制造、农产品精深加工、生物医药等领域科技人才和项目。</t>
+    <t>甘肃省“高层次人才科技创新创业扶持行动”，重点扶持海内外高层次科技人才(团队)来我省创新创业，与我省企业共同研发和转化具有自主知识产权、能够形成产业规模、具有广阔市场前景和可观预期效益的重大科技创新创业项目，孵化和培育一批高成长性的高新技术企业。重点引进新材料、新能源、先进装备制造、农产品精深加工、生物医药等领域科技人才和项目。</t>
   </si>
 </sst>
 </file>
@@ -271,9 +253,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -292,8 +274,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,135 +411,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +427,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -475,60 +625,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -539,98 +635,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -639,17 +645,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,21 +665,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,17 +680,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,6 +716,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -744,10 +765,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,7 +777,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,128 +786,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,11 +923,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1254,21 +1290,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="20.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="76.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="88.75" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1276,194 +1312,194 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="108" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="94.5" spans="1:3">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="135" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="108" spans="1:3">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="54" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="40.5" spans="1:3">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="67.5" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="54" spans="1:3">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="189" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="148.5" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="148.5" spans="1:3">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="121.5" spans="1:3">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" ht="54" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="81" spans="1:3">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="67.5" spans="1:3">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="135" spans="1:3">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="94.5" spans="1:3">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="81" spans="1:3">
-      <c r="A11" s="2" t="s">
+    <row r="11" ht="67.5" spans="1:3">
+      <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="135" spans="1:3">
-      <c r="A12" s="2" t="s">
+    <row r="12" ht="121.5" spans="1:3">
+      <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" ht="162" spans="1:3">
-      <c r="A13" s="2" t="s">
+    <row r="13" ht="121.5" spans="1:3">
+      <c r="A13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="121.5" spans="1:3">
-      <c r="A14" s="2" t="s">
+    <row r="14" ht="108" spans="1:3">
+      <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" ht="216" spans="1:3">
-      <c r="A15" s="2" t="s">
+    <row r="15" ht="148.5" spans="1:3">
+      <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" ht="135" spans="1:3">
-      <c r="A16" s="2" t="s">
+    <row r="16" ht="108" spans="1:3">
+      <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" ht="202.5" spans="1:3">
-      <c r="A17" s="2" t="s">
+    <row r="17" ht="135" spans="1:3">
+      <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" ht="202.5" spans="1:3">
-      <c r="A18" s="2" t="s">
+    <row r="18" ht="148.5" spans="1:3">
+      <c r="A18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1471,79 +1507,79 @@
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" ht="175.5" spans="1:3">
-      <c r="A20" s="2" t="s">
+    <row r="20" ht="135" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" ht="189" spans="1:3">
-      <c r="A21" s="2" t="s">
+    <row r="21" ht="135" spans="1:3">
+      <c r="A21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" ht="148.5" spans="1:3">
-      <c r="A22" s="2" t="s">
+    <row r="22" ht="108" spans="1:3">
+      <c r="A22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" ht="324" spans="1:3">
-      <c r="A23" s="2" t="s">
+    <row r="23" ht="243" spans="1:3">
+      <c r="A23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" ht="148.5" spans="1:3">
-      <c r="A24" s="2" t="s">
+    <row r="24" ht="94.5" spans="1:3">
+      <c r="A24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" ht="94.5" spans="1:3">
-      <c r="A25" s="2" t="s">
+    <row r="25" ht="54" spans="1:3">
+      <c r="A25" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="10" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1555,7 +1591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1572,7 +1608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
